--- a/biology/Botanique/Association_de_la_sommellerie_internationale/Association_de_la_sommellerie_internationale.xlsx
+++ b/biology/Botanique/Association_de_la_sommellerie_internationale/Association_de_la_sommellerie_internationale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association de la sommellerie internationale ou ASI est une association à but non lucratif fondée en 1969 pour la promotion du métier de sommelier.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ASI, association à but non lucratif (loi de 1901), fondée à Reims le 4 juin 1969, a pour but de  "Développer, promouvoir le métier sommelier et harmoniser le niveau des sommeliers professionnels à travers le monde".
 Dans cette optique, l'ASI organise depuis 1969 le « Concours du Meilleur Sommelier du Monde » qui a lieu tous les trois ans dans un des 60 pays membres, l'ASI organise également, désormais tous les trois ans, le « Concours du Meilleur Sommelier d'Europe et d'Afrique », le « Concours du Meilleur Sommelier des Amériques » et le « Concours du Meilleur Sommelier d'Asie &amp; Océanie ».
@@ -548,17 +562,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Présidence
-Elle est présidée, depuis 2020 par William Wouters (Belgique)
+          <t>Présidence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle est présidée, depuis 2020 par William Wouters (Belgique)
 Vice-président Europe : Piotr Kamecki (Pologne)
 Vice-président Amériques : Marcos Flores Tlalpan (Mexique)
 Vice-présidente Asie-Océanie : Saiko Tamura-Soga (Japon)
-Vice-présidente Afrique et Moyen-Orient Michèle Aström Chantôme (Maroc)
-Trésorerie
-Trésorier général : Philippe Faure-Brac (France)
-Trésorier adjoint : Samuil Angelov (Finland)
-Secrétariat
-Secrétaire général : Peer F. Holm (Allemagne)
+Vice-présidente Afrique et Moyen-Orient Michèle Aström Chantôme (Maroc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Association_de_la_sommellerie_internationale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_de_la_sommellerie_internationale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trésorerie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Trésorier général : Philippe Faure-Brac (France)
+Trésorier adjoint : Samuil Angelov (Finland)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Association_de_la_sommellerie_internationale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_de_la_sommellerie_internationale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Secrétariat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Secrétaire général : Peer F. Holm (Allemagne)
 Secrétaire général adjoint : Julie Dupouy-Young (Irlande)</t>
         </is>
       </c>
